--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdcd1lg2-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdcd1lg2-Rgmb.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1900676666666667</v>
+        <v>0.4549446666666667</v>
       </c>
       <c r="H2">
-        <v>0.570203</v>
+        <v>1.364834</v>
       </c>
       <c r="I2">
-        <v>0.308252828699474</v>
+        <v>0.8656500014587819</v>
       </c>
       <c r="J2">
-        <v>0.308252828699474</v>
+        <v>0.8656500014587818</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="N2">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="O2">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="P2">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="Q2">
-        <v>1.712974962314667</v>
+        <v>4.140891342826</v>
       </c>
       <c r="R2">
-        <v>15.416774660832</v>
+        <v>37.268022085434</v>
       </c>
       <c r="S2">
-        <v>0.08900080461113502</v>
+        <v>0.2486667643050749</v>
       </c>
       <c r="T2">
-        <v>0.08900080461113499</v>
+        <v>0.2486667643050748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1900676666666667</v>
+        <v>0.4549446666666667</v>
       </c>
       <c r="H3">
-        <v>0.570203</v>
+        <v>1.364834</v>
       </c>
       <c r="I3">
-        <v>0.308252828699474</v>
+        <v>0.8656500014587819</v>
       </c>
       <c r="J3">
-        <v>0.308252828699474</v>
+        <v>0.8656500014587818</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>29.048748</v>
       </c>
       <c r="O3">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="P3">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="Q3">
-        <v>1.840409250649333</v>
+        <v>4.405190991981334</v>
       </c>
       <c r="R3">
-        <v>16.563683255844</v>
+        <v>39.646718927832</v>
       </c>
       <c r="S3">
-        <v>0.09562189041002322</v>
+        <v>0.2645383564627117</v>
       </c>
       <c r="T3">
-        <v>0.09562189041002322</v>
+        <v>0.2645383564627117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1900676666666667</v>
+        <v>0.4549446666666667</v>
       </c>
       <c r="H4">
-        <v>0.570203</v>
+        <v>1.364834</v>
       </c>
       <c r="I4">
-        <v>0.308252828699474</v>
+        <v>0.8656500014587819</v>
       </c>
       <c r="J4">
-        <v>0.308252828699474</v>
+        <v>0.8656500014587818</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="N4">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="O4">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="P4">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="Q4">
-        <v>0.6126063361626667</v>
+        <v>1.776601536483778</v>
       </c>
       <c r="R4">
-        <v>5.513457025464001</v>
+        <v>15.989413828354</v>
       </c>
       <c r="S4">
-        <v>0.03182910318472082</v>
+        <v>0.1066875991088784</v>
       </c>
       <c r="T4">
-        <v>0.03182910318472082</v>
+        <v>0.1066875991088784</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1900676666666667</v>
+        <v>0.4549446666666667</v>
       </c>
       <c r="H5">
-        <v>0.570203</v>
+        <v>1.364834</v>
       </c>
       <c r="I5">
-        <v>0.308252828699474</v>
+        <v>0.8656500014587819</v>
       </c>
       <c r="J5">
-        <v>0.308252828699474</v>
+        <v>0.8656500014587818</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="N5">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="O5">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="P5">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="Q5">
-        <v>1.173817551632111</v>
+        <v>2.859435658478889</v>
       </c>
       <c r="R5">
-        <v>10.564357964689</v>
+        <v>25.73492092631</v>
       </c>
       <c r="S5">
-        <v>0.06098787714956663</v>
+        <v>0.171713419663708</v>
       </c>
       <c r="T5">
-        <v>0.06098787714956661</v>
+        <v>0.171713419663708</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1900676666666667</v>
+        <v>0.4549446666666667</v>
       </c>
       <c r="H6">
-        <v>0.570203</v>
+        <v>1.364834</v>
       </c>
       <c r="I6">
-        <v>0.308252828699474</v>
+        <v>0.8656500014587819</v>
       </c>
       <c r="J6">
-        <v>0.308252828699474</v>
+        <v>0.8656500014587818</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="N6">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="O6">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="P6">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="Q6">
-        <v>0.5930526181072223</v>
+        <v>1.233005897125778</v>
       </c>
       <c r="R6">
-        <v>5.337473562965001</v>
+        <v>11.097053074132</v>
       </c>
       <c r="S6">
-        <v>0.03081315334402832</v>
+        <v>0.07404386191840892</v>
       </c>
       <c r="T6">
-        <v>0.03081315334402832</v>
+        <v>0.07404386191840891</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.037963</v>
       </c>
       <c r="I7">
-        <v>0.0205228701636402</v>
+        <v>0.02407814503842938</v>
       </c>
       <c r="J7">
-        <v>0.0205228701636402</v>
+        <v>0.02407814503842938</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="N7">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="O7">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="P7">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="Q7">
-        <v>0.1140465211413333</v>
+        <v>0.115179324407</v>
       </c>
       <c r="R7">
-        <v>1.026418690272</v>
+        <v>1.036613919663</v>
       </c>
       <c r="S7">
-        <v>0.005925499419421712</v>
+        <v>0.00691669197375912</v>
       </c>
       <c r="T7">
-        <v>0.005925499419421711</v>
+        <v>0.00691669197375912</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.037963</v>
       </c>
       <c r="I8">
-        <v>0.0205228701636402</v>
+        <v>0.02407814503842938</v>
       </c>
       <c r="J8">
-        <v>0.0205228701636402</v>
+        <v>0.02407814503842938</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>29.048748</v>
       </c>
       <c r="O8">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="P8">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="Q8">
         <v>0.1225308467026667</v>
@@ -948,10 +948,10 @@
         <v>1.102777620324</v>
       </c>
       <c r="S8">
-        <v>0.006366318356156862</v>
+        <v>0.00735816196430769</v>
       </c>
       <c r="T8">
-        <v>0.006366318356156862</v>
+        <v>0.00735816196430769</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.037963</v>
       </c>
       <c r="I9">
-        <v>0.0205228701636402</v>
+        <v>0.02407814503842938</v>
       </c>
       <c r="J9">
-        <v>0.0205228701636402</v>
+        <v>0.02407814503842938</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="N9">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="O9">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="P9">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="Q9">
-        <v>0.04078613114933333</v>
+        <v>0.04941635695588888</v>
       </c>
       <c r="R9">
-        <v>0.3670751803439999</v>
+        <v>0.4447472126029999</v>
       </c>
       <c r="S9">
-        <v>0.002119119408704542</v>
+        <v>0.002967526691869011</v>
       </c>
       <c r="T9">
-        <v>0.002119119408704542</v>
+        <v>0.002967526691869011</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.037963</v>
       </c>
       <c r="I10">
-        <v>0.0205228701636402</v>
+        <v>0.02407814503842938</v>
       </c>
       <c r="J10">
-        <v>0.0205228701636402</v>
+        <v>0.02407814503842938</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="N10">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="O10">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="P10">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="Q10">
-        <v>0.07815047572988888</v>
+        <v>0.07953550094944443</v>
       </c>
       <c r="R10">
-        <v>0.7033542815689999</v>
+        <v>0.715819508545</v>
       </c>
       <c r="S10">
-        <v>0.004060453523094402</v>
+        <v>0.004776226669831896</v>
       </c>
       <c r="T10">
-        <v>0.004060453523094402</v>
+        <v>0.004776226669831896</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.037963</v>
       </c>
       <c r="I11">
-        <v>0.0205228701636402</v>
+        <v>0.02407814503842938</v>
       </c>
       <c r="J11">
-        <v>0.0205228701636402</v>
+        <v>0.02407814503842938</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="N11">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="O11">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="P11">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="Q11">
-        <v>0.03948428286277778</v>
+        <v>0.03429618757488889</v>
       </c>
       <c r="R11">
-        <v>0.355358545765</v>
+        <v>0.308665688174</v>
       </c>
       <c r="S11">
-        <v>0.002051479456262677</v>
+        <v>0.002059537738661666</v>
       </c>
       <c r="T11">
-        <v>0.002051479456262677</v>
+        <v>0.002059537738661666</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4138746666666666</v>
+        <v>0.05795366666666666</v>
       </c>
       <c r="H12">
-        <v>1.241624</v>
+        <v>0.173861</v>
       </c>
       <c r="I12">
-        <v>0.6712243011368858</v>
+        <v>0.1102718535027888</v>
       </c>
       <c r="J12">
-        <v>0.6712243011368858</v>
+        <v>0.1102718535027888</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="N12">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="O12">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="P12">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="Q12">
-        <v>3.730023911850667</v>
+        <v>0.5274923615289999</v>
       </c>
       <c r="R12">
-        <v>33.57021520665599</v>
+        <v>4.747431253761</v>
       </c>
       <c r="S12">
-        <v>0.1938003395711631</v>
+        <v>0.0316767110936895</v>
       </c>
       <c r="T12">
-        <v>0.193800339571163</v>
+        <v>0.0316767110936895</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4138746666666666</v>
+        <v>0.05795366666666666</v>
       </c>
       <c r="H13">
-        <v>1.241624</v>
+        <v>0.173861</v>
       </c>
       <c r="I13">
-        <v>0.6712243011368858</v>
+        <v>0.1102718535027888</v>
       </c>
       <c r="J13">
-        <v>0.6712243011368858</v>
+        <v>0.1102718535027888</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>29.048748</v>
       </c>
       <c r="O13">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="P13">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="Q13">
-        <v>4.007513631861333</v>
+        <v>0.5611604862253333</v>
       </c>
       <c r="R13">
-        <v>36.067622686752</v>
+        <v>5.050444376028</v>
       </c>
       <c r="S13">
-        <v>0.2082178348034904</v>
+        <v>0.03369853271017832</v>
       </c>
       <c r="T13">
-        <v>0.2082178348034904</v>
+        <v>0.03369853271017832</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4138746666666666</v>
+        <v>0.05795366666666666</v>
       </c>
       <c r="H14">
-        <v>1.241624</v>
+        <v>0.173861</v>
       </c>
       <c r="I14">
-        <v>0.6712243011368858</v>
+        <v>0.1102718535027888</v>
       </c>
       <c r="J14">
-        <v>0.6712243011368858</v>
+        <v>0.1102718535027888</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="N14">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="O14">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="P14">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="Q14">
-        <v>1.333957782634666</v>
+        <v>0.2263144966601111</v>
       </c>
       <c r="R14">
-        <v>12.005620043712</v>
+        <v>2.036830469941</v>
       </c>
       <c r="S14">
-        <v>0.0693082611151218</v>
+        <v>0.01359052651726782</v>
       </c>
       <c r="T14">
-        <v>0.0693082611151218</v>
+        <v>0.01359052651726782</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4138746666666666</v>
+        <v>0.05795366666666666</v>
       </c>
       <c r="H15">
-        <v>1.241624</v>
+        <v>0.173861</v>
       </c>
       <c r="I15">
-        <v>0.6712243011368858</v>
+        <v>0.1102718535027888</v>
       </c>
       <c r="J15">
-        <v>0.6712243011368858</v>
+        <v>0.1102718535027888</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="N15">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="O15">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="P15">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="Q15">
-        <v>2.556002061945778</v>
+        <v>0.3642526072905555</v>
       </c>
       <c r="R15">
-        <v>23.004018557512</v>
+        <v>3.278273465615</v>
       </c>
       <c r="S15">
-        <v>0.1328018477243254</v>
+        <v>0.02187391789488827</v>
       </c>
       <c r="T15">
-        <v>0.1328018477243254</v>
+        <v>0.02187391789488827</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4138746666666666</v>
+        <v>0.05795366666666666</v>
       </c>
       <c r="H16">
-        <v>1.241624</v>
+        <v>0.173861</v>
       </c>
       <c r="I16">
-        <v>0.6712243011368858</v>
+        <v>0.1102718535027888</v>
       </c>
       <c r="J16">
-        <v>0.6712243011368858</v>
+        <v>0.1102718535027888</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="N16">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="O16">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="P16">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="Q16">
-        <v>1.291379322635556</v>
+        <v>0.1570679205531111</v>
       </c>
       <c r="R16">
-        <v>11.62241390372</v>
+        <v>1.413611284978</v>
       </c>
       <c r="S16">
-        <v>0.06709601792278508</v>
+        <v>0.009432165286764903</v>
       </c>
       <c r="T16">
-        <v>0.06709601792278506</v>
+        <v>0.009432165286764903</v>
       </c>
     </row>
   </sheetData>
